--- a/analysis/AC_setvalue_range_analysis_IsetanMitsukoshi.xlsx
+++ b/analysis/AC_setvalue_range_analysis_IsetanMitsukoshi.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="設定温度_標準偏差" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="室内機別_サンプル数" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FanSpeed頻度" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="室内温度-設定温度差分" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31066,4 +31067,2683 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BV13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>7階④C</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑤C</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>7階③E_南ペリ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑫DN_セントラル</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑪C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑦C</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑥C</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑩F_北ペリ</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>7階②E_南ペリ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑨C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>7階⑧C</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>7階①C</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑬DN_セントラル</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑩B</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>6階③B</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>6階①AN_南ペリ</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>6階②B_子機</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>6階④A_南ペリ親機</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑤B</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑥B</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑧C</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑨B</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑦C</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑫E_北ペリ親機</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>6階⑪C</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>5階⑫FN_セントラル</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>5階⑦A</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>5階③B_南ペリ</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>5階⑥C</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>5階④A</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>5階②B_南ペリ</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>5階⑤A</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>5階⑧C</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>5階⑨AN</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>5階①A</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>5階⑪E_北ペリ</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑦</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑤A</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>9階③B_南ペリ</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>9階①A</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>9階④A</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑩A</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑨A</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑧A</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑪C_北ペリ</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑥</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>9階②BN_南ペリ親機</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>9階⑫DN_セントラル</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑦C</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑤C</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>4階②BN</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑥C</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑫FN_セントラル</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>4階③A_南ペリ</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>4階④C</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑨D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑧CN</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑪D</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>4階⑩E_北ペリ</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>4階①A_南ペリ</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑤B</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>8階④A_南ペリ</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>8階③B</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑥B</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑩</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑨B</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑫B</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑬セントラル</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑦B</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑪C_北ペリ親機</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>8階②BN</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>8階①A_南ペリ</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>8階⑧B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>-2.93</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-3.57</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>-2.78</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>-1.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>-1.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>-1.69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3.41</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>